--- a/excel/tw_2823.xlsx
+++ b/excel/tw_2823.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="2470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="2472">
   <si>
     <t>index</t>
   </si>
@@ -7424,6 +7424,12 @@
   </si>
   <si>
     <t>2020-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-31 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -7781,7 +7787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2460"/>
+  <dimension ref="A1:L2462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101264,6 +101270,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2461" spans="1:12">
+      <c r="A2461" s="1">
+        <v>2459</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C2461">
+        <v>27551718</v>
+      </c>
+      <c r="D2461">
+        <v>691040882</v>
+      </c>
+      <c r="E2461">
+        <v>25.5</v>
+      </c>
+      <c r="F2461">
+        <v>25.6</v>
+      </c>
+      <c r="G2461">
+        <v>24.55</v>
+      </c>
+      <c r="H2461">
+        <v>24.55</v>
+      </c>
+      <c r="I2461">
+        <v>-1.45</v>
+      </c>
+      <c r="J2461">
+        <v>8344</v>
+      </c>
+      <c r="K2461">
+        <v>2823</v>
+      </c>
+      <c r="L2461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:12">
+      <c r="A2462" s="1">
+        <v>2460</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C2462">
+        <v>13779949</v>
+      </c>
+      <c r="D2462">
+        <v>342460695</v>
+      </c>
+      <c r="E2462">
+        <v>24.65</v>
+      </c>
+      <c r="F2462">
+        <v>25.05</v>
+      </c>
+      <c r="G2462">
+        <v>24.65</v>
+      </c>
+      <c r="H2462">
+        <v>24.7</v>
+      </c>
+      <c r="I2462">
+        <v>0.15</v>
+      </c>
+      <c r="J2462">
+        <v>4296</v>
+      </c>
+      <c r="K2462">
+        <v>2823</v>
+      </c>
+      <c r="L2462">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
